--- a/dummy-data/data-design.xlsx
+++ b/dummy-data/data-design.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mdInput with double-input-confirmation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ownedByOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>md-checkbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scrapType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>show different form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,14 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>operationApplied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>residualValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>engineDisreplacement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>md-radio with md-input for further info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +285,89 @@
   </si>
   <si>
     <t>misc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRemote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataTypeInDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string but only number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with 6 or 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isToDeregister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mofcomVType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionAtEntrance</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>includedInTheForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,24 +717,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,112 +743,136 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,22 +880,28 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -819,578 +909,745 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/dummy-data/data-design.xlsx
+++ b/dummy-data/data-design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="102">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,58 @@
   </si>
   <si>
     <t>includedInTheForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleApplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mofcomForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policeForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mofcomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entranceDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismantling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismantaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleCertFinishedOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleCert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleCertPickedUpOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleCert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1650,6 +1702,144 @@
         <v>45</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dummy-data/data-design.xlsx
+++ b/dummy-data/data-design.xlsx
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,6 +416,10 @@
   </si>
   <si>
     <t>recycleCert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(vin)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -807,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -845,7 +845,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -865,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -915,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -935,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -944,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -973,7 +973,7 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1028,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1057,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
@@ -1158,7 +1158,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1167,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -1187,7 +1187,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -1216,7 +1216,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1225,7 +1225,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1242,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1251,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -1277,7 +1277,7 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
@@ -1303,7 +1303,7 @@
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -1320,10 +1320,10 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>57</v>
@@ -1332,7 +1332,7 @@
         <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -1346,13 +1346,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1361,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>45</v>
@@ -1378,7 +1378,7 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -1387,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1398,13 +1398,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -1439,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -1462,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -1471,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -1488,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -1497,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -1514,7 +1514,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1523,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>61</v>
@@ -1540,7 +1540,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1563,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -1580,13 +1580,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -1612,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>27</v>
@@ -1638,7 +1638,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
@@ -1707,10 +1707,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,10 +1729,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -1762,13 +1762,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -1782,16 +1782,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1799,13 +1799,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>98</v>
       </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -1814,7 +1814,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1822,13 +1822,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
         <v>100</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/dummy-data/data-design.xlsx
+++ b/dummy-data/data-design.xlsx
@@ -340,17 +340,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isOrg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conditionAtEntrance</t>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,6 +413,14 @@
   </si>
   <si>
     <t>id(vin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionOnEntrance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -798,7 +799,7 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -830,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -900,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1265,7 +1266,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -1291,7 +1292,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1320,7 +1321,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -1398,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1439,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -1523,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
         <v>61</v>
@@ -1580,7 +1581,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -1707,10 +1708,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,10 +1719,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,10 +1730,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,7 +1752,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -1762,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
@@ -1782,10 +1783,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -1799,10 +1800,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -1814,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1822,10 +1823,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -1837,7 +1838,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
